--- a/TP1/tablas/17.xlsx
+++ b/TP1/tablas/17.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111010001000100001000010001001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8250618237516981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001074155678808457</v>
+        <v>0.01955592431580381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2834389449843697</v>
+        <v>0.2515012159222224</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7959480367915861</v>
+        <v>0.06354389173200262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.840396014113771</v>
+        <v>0.7037215185114685</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8250618237516981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8454173622790482</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8250662074571167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8512330917959254</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="22">
@@ -909,17 +909,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="23">
@@ -931,17 +931,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="24">
@@ -953,17 +953,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="25">
@@ -975,17 +975,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="26">
@@ -997,17 +997,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="27">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="28">
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="29">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="30">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="31">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="32">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="33">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="34">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="35">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="36">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="37">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="38">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="39">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="40">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="41">
@@ -1327,17 +1327,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="42">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="43">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="44">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="45">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="46">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="47">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="48">
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="49">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="50">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="51">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="52">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="53">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="54">
@@ -1613,17 +1613,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="55">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="56">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="57">
@@ -1679,17 +1679,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="58">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="59">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="60">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="61">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="62">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="63">
@@ -1811,17 +1811,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="64">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="65">
@@ -1855,17 +1855,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="66">
@@ -1877,17 +1877,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="67">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="68">
@@ -1921,17 +1921,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="69">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="70">
@@ -1965,17 +1965,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="71">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="72">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="73">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="74">
@@ -2053,17 +2053,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="75">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="76">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="77">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="78">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="79">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="80">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="81">
@@ -2207,17 +2207,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="82">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="83">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="84">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="85">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="86">
@@ -2317,17 +2317,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="87">
@@ -2339,17 +2339,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="88">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="89">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="90">
@@ -2405,17 +2405,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="91">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="92">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="93">
@@ -2471,17 +2471,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="94">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="95">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="96">
@@ -2537,17 +2537,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="97">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="98">
@@ -2581,17 +2581,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="99">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="100">
@@ -2625,17 +2625,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
     <row r="101">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>111011000011101011000111101111</t>
+          <t>111011001001100000110000101000</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8515080084443172</v>
+        <v>0.8541405293185704</v>
       </c>
     </row>
   </sheetData>
